--- a/data/trans_dic/AIRE_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/AIRE_1_R-Provincia-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.8524274415788627</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.8421019492201463</v>
+        <v>0.842101949220146</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7646897877036903</v>
+        <v>0.7607563478741972</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8020175139443801</v>
+        <v>0.8068964717950818</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8006145894728349</v>
+        <v>0.7932144586775522</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8883450870770391</v>
+        <v>0.8850482338164102</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8912004937616296</v>
+        <v>0.8909333472155361</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8753189240095695</v>
+        <v>0.8705553070322988</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.7266968534874203</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.7853782764943654</v>
+        <v>0.7853782764943652</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.7545659778036137</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6526448668628878</v>
+        <v>0.6489436356417559</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7282365192120829</v>
+        <v>0.7365177187104993</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7049894027372753</v>
+        <v>0.70575032372422</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7946285158905976</v>
+        <v>0.7882279148910915</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.82996345118735</v>
+        <v>0.833303731572105</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7927403428645902</v>
+        <v>0.7954721574509042</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6682203500537758</v>
+        <v>0.6826638071516324</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.691127165794161</v>
+        <v>0.6880775506064939</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7036241493515717</v>
+        <v>0.7058436419170165</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8050423497411527</v>
+        <v>0.8057752352008897</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8046957587415018</v>
+        <v>0.8058511701039278</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7883879203302685</v>
+        <v>0.7908896630708857</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.6991514803401689</v>
+        <v>0.6991514803401687</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7483494753352242</v>
+        <v>0.7483494753352243</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7250280321910653</v>
+        <v>0.7250280321910654</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5966939914175884</v>
+        <v>0.5940033014450036</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.69162570099459</v>
+        <v>0.6817429923112965</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6739032432962476</v>
+        <v>0.6725724167779886</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.779674429417018</v>
+        <v>0.7709798434436042</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8018315060149908</v>
+        <v>0.7954845132260804</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7716481215246855</v>
+        <v>0.7700371065911475</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.4442101888399901</v>
+        <v>0.4442101888399902</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.515644404376617</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3632875130896216</v>
+        <v>0.3599258280630018</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4582836688370467</v>
+        <v>0.4545710992623187</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4358850436319378</v>
+        <v>0.4310125111221401</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5224532855081487</v>
+        <v>0.5198549598460214</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5755587934977006</v>
+        <v>0.5753191963199323</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5293450883149028</v>
+        <v>0.5284873773209466</v>
       </c>
     </row>
     <row r="19">
@@ -842,10 +842,10 @@
         <v>0.7807959163414073</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.8040683515068555</v>
+        <v>0.8040683515068554</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.7925680968457188</v>
+        <v>0.7925680968457189</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.718644858452625</v>
+        <v>0.7091246670867353</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7417024720421708</v>
+        <v>0.7433152178583761</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7494859669393923</v>
+        <v>0.7466693574474426</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8469616336833422</v>
+        <v>0.8410929483254921</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8541594692583167</v>
+        <v>0.8547650398447421</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8335636339030985</v>
+        <v>0.8348789415501543</v>
       </c>
     </row>
     <row r="22">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.6869360244783866</v>
+        <v>0.6869360244783865</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.6742216967963396</v>
+        <v>0.6742216967963395</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.6802464570492393</v>
+        <v>0.6802464570492391</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6258433718576105</v>
+        <v>0.6312099669344333</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6189694982915668</v>
+        <v>0.6204347293633109</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6413674799926778</v>
+        <v>0.6445909988894513</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7454962246310497</v>
+        <v>0.7449251245475538</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.720264432324623</v>
+        <v>0.7192082018574537</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7144156881205854</v>
+        <v>0.7186351988356982</v>
       </c>
     </row>
     <row r="25">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.8376865150682655</v>
+        <v>0.8376865150682654</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.9023526364709155</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.7996328626494241</v>
+        <v>0.7986384146335452</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.874283214806204</v>
+        <v>0.8738639481805801</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8459156356590597</v>
+        <v>0.8449743782178927</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8699645824147126</v>
+        <v>0.8723583384322529</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9279073625680574</v>
+        <v>0.9262463485150236</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8917949311647673</v>
+        <v>0.8907239942306374</v>
       </c>
     </row>
     <row r="28">
@@ -1004,13 +1004,13 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.7391308074158979</v>
+        <v>0.7391308074158978</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.7682080722432895</v>
+        <v>0.7682080722432894</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.7538896770469371</v>
+        <v>0.7538896770469369</v>
       </c>
     </row>
     <row r="29">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.7147792447107179</v>
+        <v>0.7157166909780817</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.7509931608611562</v>
+        <v>0.7504559014991976</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.7363759363893422</v>
+        <v>0.7378571229659471</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.7620364477471089</v>
+        <v>0.7623161385811974</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.7855810734562493</v>
+        <v>0.7865822933946219</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.7664979302874482</v>
+        <v>0.767269711306067</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>125836</v>
+        <v>125189</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>142239</v>
+        <v>143105</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>273738</v>
+        <v>271208</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>146184</v>
+        <v>145642</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>158056</v>
+        <v>158009</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>299280</v>
+        <v>297652</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>178134</v>
+        <v>177124</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>179780</v>
+        <v>181825</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>366463</v>
+        <v>366858</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>216887</v>
+        <v>215141</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>204894</v>
+        <v>205719</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>412077</v>
+        <v>413497</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>126928</v>
+        <v>129671</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>129309</v>
+        <v>128739</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>265301</v>
+        <v>266138</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>152917</v>
+        <v>153056</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>150558</v>
+        <v>150774</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>297261</v>
+        <v>298204</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>118554</v>
+        <v>118020</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>152471</v>
+        <v>150292</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>282458</v>
+        <v>281901</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>154910</v>
+        <v>153182</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>176766</v>
+        <v>175367</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>323427</v>
+        <v>322752</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>41140</v>
+        <v>40759</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>63509</v>
+        <v>62994</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>109767</v>
+        <v>108540</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>59165</v>
+        <v>58870</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>79761</v>
+        <v>79728</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>133302</v>
+        <v>133086</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>100584</v>
+        <v>99252</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>106267</v>
+        <v>106498</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>212283</v>
+        <v>211485</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>118544</v>
+        <v>117723</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>122379</v>
+        <v>122466</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>236097</v>
+        <v>236469</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>201236</v>
+        <v>202961</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>220987</v>
+        <v>221510</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>435211</v>
+        <v>437399</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>239709</v>
+        <v>239525</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>257152</v>
+        <v>256775</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>484780</v>
+        <v>487643</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>320003</v>
+        <v>319606</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>337322</v>
+        <v>337160</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>664902</v>
+        <v>664163</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>348149</v>
+        <v>349107</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>358012</v>
+        <v>357371</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>700964</v>
+        <v>700122</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1287371</v>
+        <v>1289059</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1394205</v>
+        <v>1393207</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>2693335</v>
+        <v>2698753</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1372485</v>
+        <v>1372989</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1458416</v>
+        <v>1460275</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2803508</v>
+        <v>2806331</v>
       </c>
     </row>
     <row r="40">
